--- a/tabellen/ontwikkeling/objectentabellen/objecten-concept-5.1-AM-assen-metreringen.xlsx
+++ b/tabellen/ontwikkeling/objectentabellen/objecten-concept-5.1-AM-assen-metreringen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\ontwikkeling\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3615C92B-4B7B-4F97-89F4-7C53E9B64EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104289D8-8C2B-4BEF-AACE-053F091C3353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33B85129-3DB4-4F5A-BDE1-1ACE3D5A20C8}"/>
+    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{33B85129-3DB4-4F5A-BDE1-1ACE3D5A20C8}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-AM-assen-m" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-AM-assen-m'!$A$1:$BS$127</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1977,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B4BD8D-D45C-47C4-BA12-9680DB674E92}">
   <dimension ref="A1:BS127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F95" sqref="F93:J95"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
